--- a/App_Movil/Planeacion_de_projecto/DiagramaDeGantt/DiagramaGantt.xlsx
+++ b/App_Movil/Planeacion_de_projecto/DiagramaDeGantt/DiagramaGantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin UNCSM\Proyecto_kerlissa\Proyecto_Desarrollo_IngeAPP\App_Movil\Planeacion_de_projecto\DiagramaDeGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B02B23-06B5-4B8C-9BBC-8297657BC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D25107-8FE3-4F95-9377-17D46E8E8EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="0" windowWidth="12990" windowHeight="10920" xr2:uid="{293C8EB1-13A4-48D4-9719-7627FDD39B16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{293C8EB1-13A4-48D4-9719-7627FDD39B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,60 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,24 +218,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B48D62-82BB-4D97-A94D-9F7233EDBB0D}">
   <dimension ref="A1:AK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +687,13 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -629,15 +728,15 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
         <v>45896</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>45905</v>
       </c>
       <c r="F3" s="1"/>
@@ -674,15 +773,15 @@
       <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
         <v>45915</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>45930</v>
       </c>
       <c r="F4" s="1"/>
@@ -719,15 +818,15 @@
       <c r="AK4" s="1"/>
     </row>
     <row r="5" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
         <v>45896</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>45905</v>
       </c>
       <c r="F5" s="1"/>
@@ -764,15 +863,15 @@
       <c r="AK5" s="1"/>
     </row>
     <row r="6" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
         <v>45909</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>45911</v>
       </c>
       <c r="F6" s="1"/>
@@ -809,13 +908,13 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -850,15 +949,15 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13">
         <v>45901</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="13">
         <v>45910</v>
       </c>
       <c r="F8" s="1"/>
@@ -895,15 +994,15 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13">
         <v>45896</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="13">
         <v>45905</v>
       </c>
       <c r="F9" s="1"/>
@@ -940,15 +1039,15 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13">
         <v>45896</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="13">
         <v>45905</v>
       </c>
       <c r="F10" s="1"/>
@@ -985,13 +1084,13 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1026,15 +1125,15 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
         <v>45915</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="18">
         <v>45920</v>
       </c>
       <c r="F12" s="1"/>
@@ -1071,15 +1170,15 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
         <v>45925</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="18">
         <v>45942</v>
       </c>
       <c r="F13" s="1"/>
@@ -1116,15 +1215,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18">
         <v>45940</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="18">
+        <v>45960</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1159,13 +1260,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18">
+        <v>45940</v>
+      </c>
+      <c r="E15" s="18">
+        <v>45963</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1200,13 +1305,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18">
+        <v>45955</v>
+      </c>
+      <c r="E16" s="18">
+        <v>45963</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1241,13 +1350,13 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1282,13 +1391,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23">
+        <v>45964</v>
+      </c>
+      <c r="E18" s="23">
+        <v>45965</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1323,13 +1436,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23">
+        <v>45964</v>
+      </c>
+      <c r="E19" s="23">
+        <v>45971</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1364,13 +1481,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23">
+        <v>45964</v>
+      </c>
+      <c r="E20" s="23">
+        <v>45971</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1405,13 +1526,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1446,13 +1567,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
+        <v>45962</v>
+      </c>
+      <c r="E22" s="8">
+        <v>45971</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1487,13 +1612,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8">
+        <v>45971</v>
+      </c>
+      <c r="E23" s="8">
+        <v>45976</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1528,13 +1657,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8">
+        <v>45950</v>
+      </c>
+      <c r="E24" s="8">
+        <v>45951</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2974,5 +3107,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>